--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2549669.553896171</v>
+        <v>2546124.723508799</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.101218069</v>
+        <v>2341983.383206082</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8044782.774282947</v>
+        <v>8043388.879987325</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3315699132536</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -716,16 +716,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>155.8850409247577</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,10 +747,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>71.24719361297615</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>24.38506177440494</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159202</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>83.63319389874106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>273.510312514515</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>33.36512478689211</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>118.1455703172661</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>25.36587880793645</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.98918911403641</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>153.0838640433766</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384507</v>
       </c>
       <c r="F11" t="n">
-        <v>68.45626899976742</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1430,13 +1430,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173252</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>81.61838887131674</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135887</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422874178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059316</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059316</v>
@@ -2318,16 +2318,16 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412925</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.9290753658111</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253666</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414339</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T26" t="n">
         <v>127.2743219418611</v>
@@ -2612,7 +2612,7 @@
         <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>6.271381985371884</v>
+        <v>123.186868128939</v>
       </c>
       <c r="W26" t="n">
         <v>273.297770207079</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723248</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2779,7 +2779,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>105.3433468545985</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>2.670853496220143</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F32" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G32" t="n">
         <v>278.6711586412925</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135899</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059322</v>
       </c>
       <c r="U32" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W32" t="n">
         <v>236.9290753658111</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880391</v>
+        <v>52.995969188804</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908632</v>
+        <v>38.1430974390864</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092613</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380524</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357251</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596464</v>
       </c>
       <c r="H34" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253669</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708617</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369185</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V34" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593872</v>
+        <v>90.5209712559388</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697377</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135894</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V38" t="n">
         <v>208.3257718879325</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677957</v>
+        <v>289.0582874597574</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956115</v>
+        <v>281.8122356875732</v>
       </c>
       <c r="D41" t="n">
-        <v>269.2250057090117</v>
+        <v>143.6390380197391</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481337</v>
+        <v>291.1261788400953</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988348</v>
+        <v>305.2939832907965</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703896</v>
+        <v>301.5996171623514</v>
       </c>
       <c r="H41" t="n">
-        <v>99.89723755779188</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.5920339519726</v>
+        <v>29.52223494393431</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.41690871383441</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.834085621652</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832602</v>
+        <v>145.7636914752219</v>
       </c>
       <c r="V41" t="n">
-        <v>226.3240294170296</v>
+        <v>231.2542304089913</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949082</v>
+        <v>259.8575338868699</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297865</v>
+        <v>278.1265682217482</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021177</v>
+        <v>285.0942911940793</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790104</v>
+        <v>75.92442770986275</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818345</v>
+        <v>61.07155596014516</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002318</v>
+        <v>46.64527117198489</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290229</v>
+        <v>46.571713224864</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266956</v>
+        <v>48.32116464463127</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506169</v>
+        <v>59.1400025670234</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163373</v>
+        <v>46.49225473359544</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280566</v>
+        <v>24.33197031476737</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726158</v>
+        <v>15.23046867922329</v>
       </c>
       <c r="S43" t="n">
-        <v>88.4262111927889</v>
+        <v>93.35641218475061</v>
       </c>
       <c r="T43" t="n">
-        <v>121.000149526961</v>
+        <v>125.9303505189227</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540309</v>
+        <v>175.1528930459926</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408968</v>
+        <v>155.8880409328585</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616469</v>
+        <v>173.0655872536086</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083595</v>
+        <v>124.3080082003212</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850358</v>
+        <v>113.4494297769976</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.1280864677957</v>
+        <v>289.0582874597574</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956115</v>
+        <v>281.8122356875732</v>
       </c>
       <c r="D44" t="n">
-        <v>269.2250057090117</v>
+        <v>173.1612729636738</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481337</v>
+        <v>291.1261788400954</v>
       </c>
       <c r="F44" t="n">
-        <v>300.3637822988348</v>
+        <v>305.2939832907965</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703897</v>
+        <v>301.5996171623514</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426871</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197264</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187274</v>
+        <v>57.41690871383442</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>113.834085621652</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832602</v>
+        <v>145.7636914752219</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170296</v>
+        <v>231.2542304089913</v>
       </c>
       <c r="W44" t="n">
-        <v>93.8573545881394</v>
+        <v>259.8575338868699</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297866</v>
+        <v>278.1265682217482</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021177</v>
+        <v>285.0942911940794</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790109</v>
+        <v>75.92442770986277</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818349</v>
+        <v>61.07155596014518</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002322</v>
+        <v>46.6452711719849</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290233</v>
+        <v>46.57171322486401</v>
       </c>
       <c r="F46" t="n">
-        <v>43.3909636526696</v>
+        <v>48.32116464463128</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506173</v>
+        <v>59.14000256702342</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163378</v>
+        <v>46.49225473359546</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280571</v>
+        <v>24.33197031476739</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726162</v>
+        <v>15.23046867922331</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278894</v>
+        <v>93.35641218475062</v>
       </c>
       <c r="T46" t="n">
-        <v>121.000149526961</v>
+        <v>125.9303505189227</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540309</v>
+        <v>175.1528930459926</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408968</v>
+        <v>155.8880409328585</v>
       </c>
       <c r="W46" t="n">
-        <v>168.135386261647</v>
+        <v>173.0655872536087</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083595</v>
+        <v>124.3080082003212</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850359</v>
+        <v>113.4494297769976</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.3990318983113</v>
+        <v>789.557515635303</v>
       </c>
       <c r="C2" t="n">
-        <v>246.3990318983113</v>
+        <v>789.557515635303</v>
       </c>
       <c r="D2" t="n">
-        <v>246.3990318983113</v>
+        <v>789.557515635303</v>
       </c>
       <c r="E2" t="n">
-        <v>246.3990318983113</v>
+        <v>789.557515635303</v>
       </c>
       <c r="F2" t="n">
-        <v>50.10451683441877</v>
+        <v>776.7034812056849</v>
       </c>
       <c r="G2" t="n">
-        <v>40.982165362826</v>
+        <v>363.540725693688</v>
       </c>
       <c r="H2" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I2" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J2" t="n">
-        <v>185.6319382716541</v>
+        <v>184.1074481690067</v>
       </c>
       <c r="K2" t="n">
-        <v>544.614294299116</v>
+        <v>208.0792072956604</v>
       </c>
       <c r="L2" t="n">
-        <v>753.7268787524779</v>
+        <v>696.367938640371</v>
       </c>
       <c r="M2" t="n">
-        <v>753.7268787524779</v>
+        <v>1184.656669985082</v>
       </c>
       <c r="N2" t="n">
-        <v>1260.88117511745</v>
+        <v>1184.656669985082</v>
       </c>
       <c r="O2" t="n">
-        <v>1700.920776009778</v>
+        <v>1624.69627087741</v>
       </c>
       <c r="P2" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R2" t="n">
-        <v>2049.1082681413</v>
+        <v>1934.890849294454</v>
       </c>
       <c r="S2" t="n">
-        <v>1882.594713082351</v>
+        <v>1768.377294235504</v>
       </c>
       <c r="T2" t="n">
-        <v>1659.094110641767</v>
+        <v>1544.876691794921</v>
       </c>
       <c r="U2" t="n">
-        <v>1403.341381076366</v>
+        <v>1289.12396222952</v>
       </c>
       <c r="V2" t="n">
-        <v>1403.341381076366</v>
+        <v>947.0171529330381</v>
       </c>
       <c r="W2" t="n">
-        <v>1032.342346044653</v>
+        <v>789.557515635303</v>
       </c>
       <c r="X2" t="n">
-        <v>642.8897409777102</v>
+        <v>789.557515635303</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.3990318983113</v>
+        <v>789.557515635303</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.1387163056952</v>
+        <v>605.7105456142885</v>
       </c>
       <c r="C3" t="n">
-        <v>379.4844858657874</v>
+        <v>455.0563151743808</v>
       </c>
       <c r="D3" t="n">
-        <v>249.3955184872677</v>
+        <v>324.9673477958611</v>
       </c>
       <c r="E3" t="n">
-        <v>112.9490275981555</v>
+        <v>188.5208569067488</v>
       </c>
       <c r="F3" t="n">
-        <v>40.982165362826</v>
+        <v>64.0890507898806</v>
       </c>
       <c r="G3" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="H3" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I3" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J3" t="n">
-        <v>40.982165362826</v>
+        <v>152.572657479906</v>
       </c>
       <c r="K3" t="n">
-        <v>360.7213114250524</v>
+        <v>152.572657479906</v>
       </c>
       <c r="L3" t="n">
-        <v>844.2873973233657</v>
+        <v>636.1387433782193</v>
       </c>
       <c r="M3" t="n">
-        <v>1307.588880221438</v>
+        <v>636.1387433782193</v>
       </c>
       <c r="N3" t="n">
-        <v>1814.743176586409</v>
+        <v>1124.42747472293</v>
       </c>
       <c r="O3" t="n">
-        <v>1814.743176586409</v>
+        <v>1332.897302737644</v>
       </c>
       <c r="P3" t="n">
-        <v>1814.743176586409</v>
+        <v>1738.518671454041</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039365</v>
+        <v>1948.966719906997</v>
       </c>
       <c r="S3" t="n">
-        <v>1890.260547939233</v>
+        <v>1814.036042806865</v>
       </c>
       <c r="T3" t="n">
-        <v>1713.276736138142</v>
+        <v>1637.052231005774</v>
       </c>
       <c r="U3" t="n">
-        <v>1503.213592816784</v>
+        <v>1426.989087684416</v>
       </c>
       <c r="V3" t="n">
-        <v>1280.673591187851</v>
+        <v>1204.449086055483</v>
       </c>
       <c r="W3" t="n">
-        <v>1050.556345321138</v>
+        <v>974.3318401887695</v>
       </c>
       <c r="X3" t="n">
-        <v>861.2492676711493</v>
+        <v>785.0247625387813</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.9350507466565</v>
+        <v>605.7105456142885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>655.1351304518357</v>
+        <v>240.0410633680875</v>
       </c>
       <c r="C4" t="n">
-        <v>655.1351304518357</v>
+        <v>69.83594543407669</v>
       </c>
       <c r="D4" t="n">
-        <v>655.1351304518357</v>
+        <v>69.83594543407669</v>
       </c>
       <c r="E4" t="n">
-        <v>655.1351304518357</v>
+        <v>69.83594543407669</v>
       </c>
       <c r="F4" t="n">
-        <v>497.8091956648086</v>
+        <v>69.83594543407669</v>
       </c>
       <c r="G4" t="n">
-        <v>329.5551417642541</v>
+        <v>69.83594543407669</v>
       </c>
       <c r="H4" t="n">
-        <v>174.0765907257481</v>
+        <v>69.83594543407669</v>
       </c>
       <c r="I4" t="n">
-        <v>40.982165362826</v>
+        <v>69.83594543407669</v>
       </c>
       <c r="J4" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="S4" t="n">
-        <v>739.6131040869277</v>
+        <v>817.003708434308</v>
       </c>
       <c r="T4" t="n">
-        <v>739.6131040869277</v>
+        <v>581.2846566025421</v>
       </c>
       <c r="U4" t="n">
-        <v>739.6131040869277</v>
+        <v>295.845864844443</v>
       </c>
       <c r="V4" t="n">
-        <v>739.6131040869277</v>
+        <v>295.845864844443</v>
       </c>
       <c r="W4" t="n">
-        <v>739.6131040869277</v>
+        <v>295.845864844443</v>
       </c>
       <c r="X4" t="n">
-        <v>739.6131040869277</v>
+        <v>295.845864844443</v>
       </c>
       <c r="Y4" t="n">
-        <v>655.1351304518357</v>
+        <v>295.845864844443</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.487903785869</v>
+        <v>499.1766114511797</v>
       </c>
       <c r="C5" t="n">
-        <v>1147.3124022888</v>
+        <v>499.1766114511797</v>
       </c>
       <c r="D5" t="n">
-        <v>871.039359344845</v>
+        <v>499.1766114511797</v>
       </c>
       <c r="E5" t="n">
-        <v>871.039359344845</v>
+        <v>499.1766114511797</v>
       </c>
       <c r="F5" t="n">
-        <v>454.1449208748228</v>
+        <v>486.3225770215615</v>
       </c>
       <c r="G5" t="n">
-        <v>40.982165362826</v>
+        <v>73.15982150956461</v>
       </c>
       <c r="H5" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I5" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J5" t="n">
-        <v>185.6319382716541</v>
+        <v>184.1074481690067</v>
       </c>
       <c r="K5" t="n">
-        <v>544.614294299116</v>
+        <v>543.0898041964685</v>
       </c>
       <c r="L5" t="n">
-        <v>568.8813186115294</v>
+        <v>951.561979391751</v>
       </c>
       <c r="M5" t="n">
-        <v>568.8813186115294</v>
+        <v>1439.850710736462</v>
       </c>
       <c r="N5" t="n">
-        <v>1076.035614976501</v>
+        <v>1439.850710736462</v>
       </c>
       <c r="O5" t="n">
-        <v>1516.07521586883</v>
+        <v>1439.850710736462</v>
       </c>
       <c r="P5" t="n">
-        <v>1864.262708000351</v>
+        <v>1788.038202867984</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R5" t="n">
-        <v>2049.1082681413</v>
+        <v>1934.890849294454</v>
       </c>
       <c r="S5" t="n">
-        <v>1882.594713082351</v>
+        <v>1768.377294235504</v>
       </c>
       <c r="T5" t="n">
-        <v>1882.594713082351</v>
+        <v>1544.876691794921</v>
       </c>
       <c r="U5" t="n">
-        <v>1882.594713082351</v>
+        <v>1289.12396222952</v>
       </c>
       <c r="V5" t="n">
-        <v>1540.487903785869</v>
+        <v>1289.12396222952</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.487903785869</v>
+        <v>1289.12396222952</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.487903785869</v>
+        <v>899.6713571625766</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.487903785869</v>
+        <v>899.6713571625766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.3481485028569</v>
+        <v>684.0314570400403</v>
       </c>
       <c r="C6" t="n">
-        <v>689.6939180629491</v>
+        <v>533.3772266001325</v>
       </c>
       <c r="D6" t="n">
-        <v>559.6049506844295</v>
+        <v>403.2882592216129</v>
       </c>
       <c r="E6" t="n">
-        <v>423.1584597953172</v>
+        <v>283.9492993051824</v>
       </c>
       <c r="F6" t="n">
-        <v>298.7266536784491</v>
+        <v>159.5174931883142</v>
       </c>
       <c r="G6" t="n">
-        <v>178.6668357503135</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="H6" t="n">
-        <v>90.36941935091441</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I6" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J6" t="n">
-        <v>154.0971475825534</v>
+        <v>152.572657479906</v>
       </c>
       <c r="K6" t="n">
-        <v>154.0971475825534</v>
+        <v>472.3118035421325</v>
       </c>
       <c r="L6" t="n">
-        <v>154.0971475825534</v>
+        <v>955.8778894404456</v>
       </c>
       <c r="M6" t="n">
-        <v>661.2514439475251</v>
+        <v>955.8778894404456</v>
       </c>
       <c r="N6" t="n">
-        <v>901.9675115050402</v>
+        <v>1444.166620785156</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.121807870012</v>
+        <v>1567.262394292535</v>
       </c>
       <c r="P6" t="n">
-        <v>1814.743176586409</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R6" t="n">
-        <v>2049.1082681413</v>
+        <v>1948.966719906997</v>
       </c>
       <c r="S6" t="n">
-        <v>2049.1082681413</v>
+        <v>1814.036042806865</v>
       </c>
       <c r="T6" t="n">
-        <v>2023.486168335304</v>
+        <v>1637.052231005774</v>
       </c>
       <c r="U6" t="n">
-        <v>1813.423025013945</v>
+        <v>1426.989087684416</v>
       </c>
       <c r="V6" t="n">
-        <v>1590.883023385012</v>
+        <v>1204.449086055483</v>
       </c>
       <c r="W6" t="n">
-        <v>1360.765777518299</v>
+        <v>1204.449086055483</v>
       </c>
       <c r="X6" t="n">
-        <v>1171.458699868311</v>
+        <v>1015.142008405494</v>
       </c>
       <c r="Y6" t="n">
-        <v>992.1444829438183</v>
+        <v>835.8277914810017</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="C7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="D7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="E7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="F7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="G7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="H7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="S7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="T7" t="n">
-        <v>706.7101360726125</v>
+        <v>724.7253613476726</v>
       </c>
       <c r="U7" t="n">
-        <v>421.2713443145134</v>
+        <v>724.7253613476726</v>
       </c>
       <c r="V7" t="n">
-        <v>421.2713443145134</v>
+        <v>458.7460161684968</v>
       </c>
       <c r="W7" t="n">
-        <v>137.9409422456911</v>
+        <v>458.7460161684968</v>
       </c>
       <c r="X7" t="n">
-        <v>137.9409422456911</v>
+        <v>224.6656939514799</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.9409422456911</v>
+        <v>224.6656939514799</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>766.2970426510742</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>766.2970426510742</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>766.2970426510742</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.28249744187</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.28249744187</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1166.791788362471</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.171044252416</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1029.670596756272</v>
+        <v>731.435776546391</v>
       </c>
       <c r="E11" t="n">
-        <v>722.0277531600036</v>
+        <v>656.6116896536175</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707836</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244626</v>
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669550998</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082774</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M13" t="n">
         <v>836.8050913469763</v>
@@ -5224,25 +5224,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852104</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.523084255381</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592127</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.673070414051</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.43825020417</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1009.937802708026</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>702.2949591117585</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>380.341201928924</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3023.513568164042</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2776.347440154749</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2500.289086410225</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.77716263047</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.22713483826</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5464,16 +5464,16 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
         <v>711.5230842553816</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
@@ -5504,19 +5504,19 @@
         <v>542.6718405099305</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680342</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924096</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404056</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358935</v>
@@ -5534,7 +5534,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
         <v>3105.956385205776</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646554</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878211</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,16 +5674,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
         <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296516</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5738,7 +5738,7 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
         <v>261.185821680343</v>
@@ -5750,10 +5750,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404056</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358935</v>
@@ -5783,19 +5783,19 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069231</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069231</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5920,16 +5920,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.202162476281</v>
@@ -5966,13 +5966,13 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099309</v>
@@ -5981,7 +5981,7 @@
         <v>261.1858216803428</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924184</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5990,7 +5990,7 @@
         <v>206.7689006129435</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404054</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843828</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307968</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462925</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838021</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918818</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.542679919436</v>
+        <v>1835.670734401736</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.307859709555</v>
+        <v>1537.435914191855</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.807412213411</v>
+        <v>1246.935466695711</v>
       </c>
       <c r="E26" t="n">
-        <v>981.1645686171435</v>
+        <v>939.2926230994433</v>
       </c>
       <c r="F26" t="n">
-        <v>659.2108114343096</v>
+        <v>617.3388659166094</v>
       </c>
       <c r="G26" t="n">
-        <v>340.988737209501</v>
+        <v>299.1167916918016</v>
       </c>
       <c r="H26" t="n">
-        <v>111.84636806318</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283314</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="J26" t="n">
-        <v>306.1510670812345</v>
+        <v>264.5650504944597</v>
       </c>
       <c r="K26" t="n">
-        <v>758.1847848382696</v>
+        <v>716.5987682514948</v>
       </c>
       <c r="L26" t="n">
-        <v>1251.505076556798</v>
+        <v>1302.970421699597</v>
       </c>
       <c r="M26" t="n">
-        <v>1797.505976601379</v>
+        <v>1848.971321744178</v>
       </c>
       <c r="N26" t="n">
-        <v>2325.317260238841</v>
+        <v>2469.833967111213</v>
       </c>
       <c r="O26" t="n">
-        <v>2765.35686113117</v>
+        <v>2909.873568003542</v>
       </c>
       <c r="P26" t="n">
-        <v>3113.544353262691</v>
+        <v>3258.061060135063</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143644</v>
+        <v>3442.906620276012</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141657</v>
+        <v>3498.721127274025</v>
       </c>
       <c r="S26" t="n">
-        <v>3350.923748369896</v>
+        <v>3427.148253502264</v>
       </c>
       <c r="T26" t="n">
-        <v>3222.363827216501</v>
+        <v>3298.588332348869</v>
       </c>
       <c r="U26" t="n">
-        <v>3061.551778938288</v>
+        <v>3137.776284070655</v>
       </c>
       <c r="V26" t="n">
-        <v>3055.217049660134</v>
+        <v>3013.345104142434</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.15869591561</v>
+        <v>2737.28675039791</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.646772135855</v>
+        <v>2442.774826618155</v>
       </c>
       <c r="Y26" t="n">
-        <v>2183.096744343644</v>
+        <v>2141.224798825945</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855115</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456037</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670841</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611036</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303206</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283314</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>183.0894047652079</v>
       </c>
       <c r="K27" t="n">
-        <v>501.304060724787</v>
+        <v>502.8285508274344</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231003</v>
+        <v>986.3946367257477</v>
       </c>
       <c r="M27" t="n">
-        <v>1230.2787245562</v>
+        <v>1092.54552603927</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938181</v>
+        <v>500.9396617964654</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469957</v>
+        <v>425.6752251496429</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366987</v>
+        <v>364.982793339346</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830896</v>
+        <v>304.3646624857367</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832508</v>
+        <v>241.9794089858982</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698847</v>
+        <v>168.6660363725321</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212143</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283314</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="J28" t="n">
-        <v>131.7275515749691</v>
+        <v>133.2520416776162</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144842</v>
+        <v>308.1384445171313</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178573</v>
+        <v>565.3174461205048</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856946</v>
+        <v>844.6603861883423</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949125</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245948</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239279</v>
+        <v>858.5180200265753</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940994</v>
+        <v>719.3783790967467</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979311</v>
+        <v>591.2069992005784</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1834.146244299089</v>
+        <v>1712.935786320664</v>
       </c>
       <c r="C29" t="n">
-        <v>1535.911424089207</v>
+        <v>1414.700966110783</v>
       </c>
       <c r="D29" t="n">
-        <v>1245.410976593063</v>
+        <v>1124.200518614639</v>
       </c>
       <c r="E29" t="n">
-        <v>937.7681329967966</v>
+        <v>816.557675018372</v>
       </c>
       <c r="F29" t="n">
-        <v>615.8143758139627</v>
+        <v>494.6039178355381</v>
       </c>
       <c r="G29" t="n">
-        <v>297.5923015891541</v>
+        <v>176.3818436107315</v>
       </c>
       <c r="H29" t="n">
-        <v>68.44993244283314</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283314</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="J29" t="n">
-        <v>306.1510670812345</v>
+        <v>307.6755571838819</v>
       </c>
       <c r="K29" t="n">
-        <v>665.1334231086964</v>
+        <v>666.6579132113438</v>
       </c>
       <c r="L29" t="n">
-        <v>1158.453714827225</v>
+        <v>1209.919059970023</v>
       </c>
       <c r="M29" t="n">
-        <v>1704.454614871806</v>
+        <v>1848.971321744177</v>
       </c>
       <c r="N29" t="n">
-        <v>2232.265898509268</v>
+        <v>2376.782605381639</v>
       </c>
       <c r="O29" t="n">
-        <v>2672.305499401597</v>
+        <v>2909.873568003541</v>
       </c>
       <c r="P29" t="n">
-        <v>3088.785193273122</v>
+        <v>3258.061060135063</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143644</v>
+        <v>3442.906620276012</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141657</v>
+        <v>3498.721127274025</v>
       </c>
       <c r="S29" t="n">
-        <v>3422.496622141657</v>
+        <v>3427.148253502264</v>
       </c>
       <c r="T29" t="n">
-        <v>3419.798790327293</v>
+        <v>3298.588332348869</v>
       </c>
       <c r="U29" t="n">
-        <v>3258.98674204908</v>
+        <v>3137.776284070655</v>
       </c>
       <c r="V29" t="n">
-        <v>3011.820614039787</v>
+        <v>2890.610156061362</v>
       </c>
       <c r="W29" t="n">
-        <v>2735.762260295263</v>
+        <v>2614.551802316838</v>
       </c>
       <c r="X29" t="n">
-        <v>2441.250336515508</v>
+        <v>2320.039878537083</v>
       </c>
       <c r="Y29" t="n">
-        <v>2139.700308723297</v>
+        <v>2018.489850744873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855115</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456037</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670841</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611036</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303206</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283314</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="K30" t="n">
-        <v>501.304060724787</v>
+        <v>389.713568607707</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8701466231003</v>
+        <v>873.2796545060203</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.2787245562</v>
+        <v>1501.051304132702</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.415171693818</v>
+        <v>500.9396617964658</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469956</v>
+        <v>425.6752251496434</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366987</v>
+        <v>364.9827933393465</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830895</v>
+        <v>304.3646624857373</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832508</v>
+        <v>241.9794089858986</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698846</v>
+        <v>168.6660363725324</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212147</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283314</v>
+        <v>69.97442254548051</v>
       </c>
       <c r="J31" t="n">
-        <v>131.727551574969</v>
+        <v>133.2520416776166</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144842</v>
+        <v>308.1384445171318</v>
       </c>
       <c r="L31" t="n">
-        <v>563.7929560178573</v>
+        <v>565.3174461205049</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856948</v>
+        <v>844.6603861883422</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949125</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617759</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245948</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613038</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171108</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.90774080821</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239279</v>
+        <v>858.5180200265756</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940993</v>
+        <v>719.378379096747</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.682509097931</v>
+        <v>591.2069992005788</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975457</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6701,7 +6701,7 @@
         <v>206.7689006129439</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404058</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358935</v>
@@ -6725,22 +6725,22 @@
         <v>3105.956385205777</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443166</v>
@@ -6783,19 +6783,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843828</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2184.144245539707</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885602</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369578</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218809</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634918</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588731</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072696</v>
       </c>
       <c r="H34" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
@@ -6865,43 +6865,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N34" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296525</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T34" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918821</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161914</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194231</v>
+        <v>634.955836619424</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330091</v>
+        <v>483.30217123301</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984015</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974532</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099303</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
         <v>2132.883732040978</v>
@@ -6968,19 +6968,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843828</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960423</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343063</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655156</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072236</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R37" t="n">
         <v>1098.202162476282</v>
@@ -7157,25 +7157,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803427</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404058</v>
+        <v>565.7512566404056</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358935</v>
@@ -7205,19 +7205,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843828</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618136</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,43 +7339,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1631.639822887697</v>
+        <v>1428.779014516732</v>
       </c>
       <c r="C41" t="n">
-        <v>1351.960999962837</v>
+        <v>1144.12019058989</v>
       </c>
       <c r="D41" t="n">
-        <v>1080.016549751714</v>
+        <v>999.0302531962143</v>
       </c>
       <c r="E41" t="n">
-        <v>790.9297034404674</v>
+        <v>704.9634058829865</v>
       </c>
       <c r="F41" t="n">
-        <v>487.5319435426545</v>
+        <v>396.5856449831921</v>
       </c>
       <c r="G41" t="n">
-        <v>187.865866602867</v>
+        <v>91.93956704142292</v>
       </c>
       <c r="H41" t="n">
-        <v>86.95956603944137</v>
+        <v>91.93956704142292</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358935</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205775</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205775</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U41" t="n">
-        <v>2963.700334212584</v>
+        <v>2785.739530851526</v>
       </c>
       <c r="V41" t="n">
-        <v>2735.090203488311</v>
+        <v>2552.149399125272</v>
       </c>
       <c r="W41" t="n">
-        <v>2477.587847028808</v>
+        <v>2289.667041663788</v>
       </c>
       <c r="X41" t="n">
-        <v>2201.631920534074</v>
+        <v>2008.731114167072</v>
       </c>
       <c r="Y41" t="n">
-        <v>1918.637890026885</v>
+        <v>1720.757082657901</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7473,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7485,19 +7485,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860693</v>
+        <v>84.60386270860971</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843827</v>
+        <v>568.1699486069231</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069231</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599535</v>
+        <v>398.0523929738242</v>
       </c>
       <c r="C43" t="n">
-        <v>306.483946598152</v>
+        <v>336.3639526100412</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728761</v>
+        <v>289.2475170827837</v>
       </c>
       <c r="E43" t="n">
-        <v>222.2853785042879</v>
+        <v>242.205382512214</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894702</v>
+        <v>193.3961252954147</v>
       </c>
       <c r="G43" t="n">
-        <v>123.698746961125</v>
+        <v>133.6587489650881</v>
       </c>
       <c r="H43" t="n">
-        <v>81.7168744948283</v>
+        <v>86.69687549680985</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>250.3113645006377</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878571</v>
+        <v>486.4314323386345</v>
       </c>
       <c r="M43" t="n">
-        <v>605.6114816947435</v>
+        <v>779.0802063634787</v>
       </c>
       <c r="N43" t="n">
-        <v>900.0392103945751</v>
+        <v>962.2698403946879</v>
       </c>
       <c r="O43" t="n">
-        <v>1173.982072104905</v>
+        <v>1231.331803122976</v>
       </c>
       <c r="P43" t="n">
-        <v>1377.885148554431</v>
+        <v>1457.565164586135</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924481</v>
+        <v>1460.987360956186</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129268</v>
+        <v>1445.603049158991</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.583628884026</v>
+        <v>1351.303642911768</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.36125562447</v>
+        <v>1224.10126865023</v>
       </c>
       <c r="U43" t="n">
-        <v>987.41914243858</v>
+        <v>1047.179154462358</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316135</v>
+        <v>889.7164868534103</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350004</v>
+        <v>714.9027623548156</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901929</v>
+        <v>589.3391177080265</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790455</v>
+        <v>474.7437340948977</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1741.319894185571</v>
+        <v>1428.779014516732</v>
       </c>
       <c r="C44" t="n">
-        <v>1461.641071260711</v>
+        <v>1144.120190589891</v>
       </c>
       <c r="D44" t="n">
-        <v>1189.696621049588</v>
+        <v>969.2098138589067</v>
       </c>
       <c r="E44" t="n">
-        <v>900.609774738342</v>
+        <v>675.142966545679</v>
       </c>
       <c r="F44" t="n">
-        <v>597.212014840529</v>
+        <v>366.7652056458846</v>
       </c>
       <c r="G44" t="n">
-        <v>297.5459379007414</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>86.9595660394414</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.939508719036</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T44" t="n">
-        <v>3052.939508719036</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U44" t="n">
-        <v>2910.683457725843</v>
+        <v>2785.739530851527</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.073327001571</v>
+        <v>2552.149399125273</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.267918326683</v>
+        <v>2289.667041663788</v>
       </c>
       <c r="X44" t="n">
-        <v>2311.311991831949</v>
+        <v>2008.731114167073</v>
       </c>
       <c r="Y44" t="n">
-        <v>2028.317961324759</v>
+        <v>1720.757082657901</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,25 +7722,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860693</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843827</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505242</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352065</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599538</v>
+        <v>398.0523929738243</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981523</v>
+        <v>336.3639526100413</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728763</v>
+        <v>289.2475170827838</v>
       </c>
       <c r="E46" t="n">
-        <v>222.285378504288</v>
+        <v>242.2053825122141</v>
       </c>
       <c r="F46" t="n">
-        <v>178.4561222894703</v>
+        <v>193.3961252954148</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611251</v>
+        <v>133.6587489650881</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482835</v>
+        <v>86.69687549680987</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>227.9810794870048</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>503.3468140294269</v>
+        <v>414.4390043744374</v>
       </c>
       <c r="M46" t="n">
-        <v>800.8764870363132</v>
+        <v>707.0877783992817</v>
       </c>
       <c r="N46" t="n">
-        <v>1095.304215736145</v>
+        <v>890.2774124304908</v>
       </c>
       <c r="O46" t="n">
-        <v>1258.008982777853</v>
+        <v>1124.974607436396</v>
       </c>
       <c r="P46" t="n">
-        <v>1377.885148554431</v>
+        <v>1351.207968899555</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924482</v>
+        <v>1460.987360956186</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129268</v>
+        <v>1445.603049158991</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.583628884027</v>
+        <v>1351.303642911768</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.36125562447</v>
+        <v>1224.10126865023</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385805</v>
+        <v>1047.179154462358</v>
       </c>
       <c r="V46" t="n">
-        <v>834.936475831614</v>
+        <v>889.7164868534104</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350008</v>
+        <v>714.9027623548158</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901932</v>
+        <v>589.3391177080266</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790458</v>
+        <v>474.7437340948978</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>167.2723012869683</v>
       </c>
       <c r="L2" t="n">
-        <v>364.4730025116654</v>
+        <v>646.4691104827247</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>642.9459923499603</v>
       </c>
       <c r="N2" t="n">
-        <v>661.3955583731091</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>560.3684179059503</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>597.6491798894916</v>
+        <v>578.5930536063996</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>303.2631427421354</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,16 +8219,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>177.7603155006063</v>
+        <v>565.8463264934034</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>642.9459923499603</v>
       </c>
       <c r="N5" t="n">
-        <v>661.3955583731091</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>604.6641890846369</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>328.5196558415556</v>
+        <v>578.5930536063996</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242139</v>
+        <v>217.0267240478568</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>612.8252961895594</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>438.5811111539135</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9413,7 +9413,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698821</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092956</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691813</v>
       </c>
       <c r="M24" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416653</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339852</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069883</v>
+        <v>199.6102425680209</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069882</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416653</v>
+        <v>744.8605591506559</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888877</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691813</v>
       </c>
       <c r="M33" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416653</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888877</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024232</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,7 +10586,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110171</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416653</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691813</v>
       </c>
       <c r="M39" t="n">
-        <v>340.274574506988</v>
+        <v>517.3131487114043</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416653</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732265</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069881</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416653</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691813</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069881</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416653</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362806</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
-        <v>250.2779506112381</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385727</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>77.58553892411419</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.280181205041131e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>238.4230847438285</v>
+        <v>121.5075986002614</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>121.5075986002593</v>
       </c>
       <c r="I29" t="n">
         <v>42.96247126414334</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>124.6034684456409</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>130.5161686812343</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5832705848951</v>
+        <v>213.4107091346487</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.4867077218727</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296903</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>100.9939337372996</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>213.4107091346488</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.52223494393429</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296903</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>161.0699783067688</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>694104.2164552762</v>
+        <v>692723.397995636</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>694104.2164552762</v>
+        <v>692723.397995636</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>691982.2134272815</v>
+        <v>697133.0409136333</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691982.2134272816</v>
+        <v>697133.0409136335</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>689784.7017261649</v>
+        <v>684633.8742398128</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>689784.7017261648</v>
+        <v>684633.874239813</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631162.6233267486</v>
+        <v>631162.623326749</v>
       </c>
       <c r="C2" t="n">
-        <v>631162.6233267484</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="D2" t="n">
-        <v>631162.6233267487</v>
+        <v>631162.623326749</v>
       </c>
       <c r="E2" t="n">
-        <v>593166.4293913341</v>
+        <v>593166.4293913343</v>
       </c>
       <c r="F2" t="n">
-        <v>593166.4293913339</v>
+        <v>593166.4293913345</v>
       </c>
       <c r="G2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.6233267488</v>
       </c>
       <c r="H2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="I2" t="n">
-        <v>631162.6233267491</v>
+        <v>631162.623326749</v>
       </c>
       <c r="J2" t="n">
-        <v>614556.4554743409</v>
+        <v>619707.2829606928</v>
       </c>
       <c r="K2" t="n">
-        <v>614556.4554743407</v>
+        <v>619707.2829606929</v>
       </c>
       <c r="L2" t="n">
         <v>631162.623326749</v>
@@ -26347,13 +26347,13 @@
         <v>631162.6233267491</v>
       </c>
       <c r="N2" t="n">
-        <v>631162.623326749</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="O2" t="n">
-        <v>612358.9437732254</v>
+        <v>607208.1162868727</v>
       </c>
       <c r="P2" t="n">
-        <v>612358.9437732258</v>
+        <v>607208.116286872</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360792</v>
+        <v>165289.6813277106</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984813</v>
+        <v>30501.12795716499</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.9558730143</v>
+        <v>29094.95587301447</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.484179392718943e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>200837.4980720423</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602864</v>
+        <v>58189.91174602856</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989162</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316117</v>
+        <v>27755.29688959178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238615.3248246001</v>
+        <v>242370.3115962892</v>
       </c>
       <c r="C4" t="n">
-        <v>238615.3248246001</v>
+        <v>242370.3115962892</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="F4" t="n">
         <v>174664.8493247784</v>
@@ -26436,28 +26436,28 @@
         <v>199269.1699682602</v>
       </c>
       <c r="I4" t="n">
+        <v>199269.1699682603</v>
+      </c>
+      <c r="J4" t="n">
+        <v>192375.5280079686</v>
+      </c>
+      <c r="K4" t="n">
+        <v>192375.5280079685</v>
+      </c>
+      <c r="L4" t="n">
         <v>199269.1699682602</v>
       </c>
-      <c r="J4" t="n">
-        <v>188938.3872119906</v>
-      </c>
-      <c r="K4" t="n">
-        <v>188938.3872119905</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>199269.1699682603</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>199269.1699682602</v>
       </c>
-      <c r="N4" t="n">
-        <v>199269.1699682603</v>
-      </c>
       <c r="O4" t="n">
-        <v>187091.6797433469</v>
+        <v>183756.6055360511</v>
       </c>
       <c r="P4" t="n">
-        <v>187091.6797433469</v>
+        <v>183756.6055360511</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773577</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773577</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,34 +26482,34 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033449</v>
+        <v>61082.31358834649</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.7011103345</v>
+        <v>61082.31358834649</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330598</v>
+        <v>56242.19673611278</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330598</v>
+        <v>56242.19673611278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156097.4252903216</v>
+        <v>159887.1972050134</v>
       </c>
       <c r="C6" t="n">
-        <v>327773.2528264006</v>
+        <v>325176.8785327238</v>
       </c>
       <c r="D6" t="n">
-        <v>313973.58604806</v>
+        <v>308054.1815407433</v>
       </c>
       <c r="E6" t="n">
-        <v>232936.3594199345</v>
+        <v>232827.7988658335</v>
       </c>
       <c r="F6" t="n">
-        <v>363389.2905576465</v>
+        <v>363280.7300035459</v>
       </c>
       <c r="G6" t="n">
-        <v>344628.728169955</v>
+        <v>344628.7281699544</v>
       </c>
       <c r="H6" t="n">
-        <v>373723.6840429693</v>
+        <v>373723.6840429692</v>
       </c>
       <c r="I6" t="n">
-        <v>373723.6840429691</v>
+        <v>373723.684042969</v>
       </c>
       <c r="J6" t="n">
-        <v>164856.8690799736</v>
+        <v>165379.2137484325</v>
       </c>
       <c r="K6" t="n">
-        <v>365694.3671520157</v>
+        <v>366216.7118204748</v>
       </c>
       <c r="L6" t="n">
-        <v>315533.7722969403</v>
+        <v>315533.7722969405</v>
       </c>
       <c r="M6" t="n">
         <v>327601.7628030775</v>
       </c>
       <c r="N6" t="n">
-        <v>373723.684042969</v>
+        <v>373723.6840429692</v>
       </c>
       <c r="O6" t="n">
-        <v>336911.1325434113</v>
+        <v>339385.5756764317</v>
       </c>
       <c r="P6" t="n">
-        <v>368610.5902265729</v>
+        <v>367140.8725660227</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155843</v>
@@ -26704,16 +26704,16 @@
         <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155843</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
     </row>
     <row r="3">
@@ -26750,10 +26750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.277067035325</v>
+        <v>493.220940752233</v>
       </c>
       <c r="C4" t="n">
-        <v>512.277067035325</v>
+        <v>493.220940752233</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,10 +26811,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354143</v>
+        <v>874.6802818185063</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354143</v>
+        <v>874.6802818185063</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014442</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36.36869484126787</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>57.62257963304852</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.4210854715202e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>36.36869484126788</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>57.62257963304856</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
-      </c>
       <c r="L2" t="n">
-        <v>72.73738968253579</v>
+        <v>72.73738968253569</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62432210395146</v>
+        <v>34.69412111198973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.277067035325</v>
+        <v>493.220940752233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.13505923397008</v>
+        <v>98.19118551706208</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>36.36869484126787</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>57.62257963304852</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.4210854715202e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>36.36869484126788</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>57.62257963304856</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.277067035325</v>
+        <v>493.220940752233</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.13505923397008</v>
+        <v>98.19118551706208</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>218.3939241720684</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>211.4040037566377</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.94029444272337</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>94.47415797444926</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,19 +27546,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.247746672782</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>108.0764049809839</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>287.4770951422821</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>16.93645566295501</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>149.8480948751442</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.36674939035186</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>245.4738255912443</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634530115</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28992,19 +28992,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155843</v>
       </c>
-      <c r="O22" t="n">
-        <v>5.636002634529945</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155843</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634530442</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,43 +29272,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431643</v>
+        <v>50.44530812136477</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.9820219595999</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="29">
@@ -29539,22 +29539,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.44530812136401</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>68.98202195959891</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431644</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29937,16 +29937,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.636002634530882</v>
       </c>
       <c r="P34" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29955,25 +29955,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634530399</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082793</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155843</v>
@@ -30238,7 +30238,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155848</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
         <v>130.3599693155843</v>
@@ -30411,16 +30411,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155843</v>
+        <v>5.636002634530428</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.6129845773319</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>72.71962420625962</v>
       </c>
       <c r="M43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="N43" t="n">
-        <v>112.3617117864872</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="P43" t="n">
-        <v>84.87566734641061</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.6129845773319</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>84.87566734641152</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="M46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="N46" t="n">
-        <v>112.3617117864872</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>72.71962420625962</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945255</v>
       </c>
     </row>
   </sheetData>
@@ -32236,22 +32236,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -32318,16 +32318,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32473,22 +32473,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>24.21389810773092</v>
       </c>
       <c r="L2" t="n">
-        <v>211.2248327811737</v>
+        <v>493.220940752233</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>493.220940752233</v>
       </c>
       <c r="N2" t="n">
-        <v>512.277067035325</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>467.9812958566384</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>512.277067035325</v>
+        <v>493.220940752233</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>210.5755838532465</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,16 +34939,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>24.51214577011461</v>
+        <v>412.5981567629116</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>493.220940752233</v>
       </c>
       <c r="N5" t="n">
-        <v>512.277067035325</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>512.277067035325</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>243.147542987389</v>
+        <v>493.220940752233</v>
       </c>
       <c r="O6" t="n">
-        <v>512.277067035325</v>
+        <v>124.3391651589679</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>463.1002445918322</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>346.1939891046017</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873221</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716088</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36121,22 +36121,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457859</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36203,16 +36203,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237747</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36288,19 +36288,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.4505918164782</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576762</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828092</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146705</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724886</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>196.5561898474538</v>
       </c>
       <c r="K26" t="n">
         <v>456.599714906096</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192275</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36613,10 +36613,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>255.694708970659</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698315</v>
+        <v>56.37828989698313</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576764</v>
+        <v>107.223120518709</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446891</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>362.6084404317797</v>
       </c>
       <c r="L29" t="n">
-        <v>498.3033249682111</v>
+        <v>548.7486330895752</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510916</v>
+        <v>645.5073351254081</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449113</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457865</v>
+        <v>538.4757198201029</v>
       </c>
       <c r="P29" t="n">
-        <v>420.6865594661867</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698316</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.4505918164782</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828092</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.4505918164782</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576762</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828092</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465092</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N34" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716097</v>
       </c>
       <c r="P34" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37306,7 +37306,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317799</v>
       </c>
       <c r="L35" t="n">
         <v>498.3033249682111</v>
@@ -37391,10 +37391,10 @@
         <v>488.4505918164782</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576762</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828092</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565504</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634530472</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.4505918164782</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576762</v>
+        <v>424.9260266620926</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828092</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716093</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724881</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37801,7 +37801,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989311</v>
       </c>
       <c r="L42" t="n">
         <v>488.4505918164782</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576763</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828092</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>190.0931684813355</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>238.5051190282796</v>
       </c>
       <c r="M43" t="n">
-        <v>300.5350232392792</v>
+        <v>295.6048222473174</v>
       </c>
       <c r="N43" t="n">
-        <v>297.401746161446</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>276.7099613235661</v>
+        <v>271.7797603316044</v>
       </c>
       <c r="P43" t="n">
-        <v>205.9627034843688</v>
+        <v>228.5185469324837</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38038,7 +38038,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.4505918164782</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576763</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828092</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169659</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>167.5373250332215</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>278.1472066085072</v>
+        <v>273.2170056165455</v>
       </c>
       <c r="M46" t="n">
-        <v>300.5350232392791</v>
+        <v>295.6048222473174</v>
       </c>
       <c r="N46" t="n">
-        <v>297.401746161446</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>237.0678737433385</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>228.5185469324837</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>110.888274804678</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
